--- a/src/assets/Some useful tricks/Some useful excel formulas.xlsx
+++ b/src/assets/Some useful tricks/Some useful excel formulas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\Some useful tricks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB7406-1DFA-4A90-9E09-F879D045C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5FD4FD-AF74-4CA0-8735-45E69E971B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>الإسم</t>
   </si>
@@ -86,9 +109,6 @@
     <t>3121212151367</t>
   </si>
   <si>
-    <t>تعبئة الرقم القومي تلقائيًا عن طريق البحث</t>
-  </si>
-  <si>
     <t>الاسم بدون فواصل</t>
   </si>
   <si>
@@ -111,6 +131,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>تعبئة الرقم القومي تلقائيًا عن طريق البحث بالإسم</t>
+  </si>
+  <si>
+    <t>الحصول علي عنوان ملف الاكسل</t>
   </si>
 </sst>
 </file>
@@ -470,17 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -489,28 +515,29 @@
     <col min="10" max="10" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" customWidth="1"/>
+    <col min="15" max="15" width="120.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -536,8 +563,11 @@
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -546,7 +576,7 @@
         <v>احمدالسيدعلي</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>MID(C2, FIND("§", SUBSTITUTE(C2, "\", "§", LEN(C2) - LEN(SUBSTITUTE(C2, "\", "")))) + 1, LEN(C2))</f>
@@ -591,8 +621,12 @@
         <f ca="1">DATEDIF(TODAY(), M2, "Y")</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">LEFT(CELL("filename", A1), FIND("[", CELL("filename", A1)) - 1)</f>
+        <v>D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\Some useful tricks\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -601,7 +635,7 @@
         <v>يوسفعاطفالسيد</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D4" si="0">MID(C3, FIND("§", SUBSTITUTE(C3, "\", "§", LEN(C3) - LEN(SUBSTITUTE(C3, "\", "")))) + 1, LEN(C3))</f>
@@ -646,8 +680,12 @@
         <f t="shared" ref="N3:N4" ca="1" si="9">DATEDIF(TODAY(), M3, "Y")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">LEFT(CELL("filename", A2), FIND("[", CELL("filename", A2)) - 1)</f>
+        <v>D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\Some useful tricks\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -656,7 +694,7 @@
         <v>سهامرضاحيدر</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -701,18 +739,34 @@
         <f t="shared" ca="1" si="9"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">LEFT(CELL("filename", A3), FIND("[", CELL("filename", A3)) - 1)</f>
+        <v>D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\Some useful tricks\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +774,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>_xlfn.XLOOKUP(D11, Sheet1!A:A, Sheet1!B:B, "لا يوجد")</f>
+        <v>سهام رضا حيدر</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>12</v>
       </c>
@@ -729,7 +790,14 @@
         <v>30008221500828</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>_xlfn.XLOOKUP(D12, Sheet1!A:A, Sheet1!B:B, "لا يوجد")</f>
+        <v>احمد السيد علي</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,7 +806,14 @@
         <v>30009241500855</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>_xlfn.XLOOKUP(D13, Sheet1!A:A, Sheet1!B:B, "لا يوجد")</f>
+        <v>يوسف عاطف السيد</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>11</v>
       </c>
@@ -748,9 +823,61 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K8:L9"/>
+    <mergeCell ref="D8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77809EF5-4E80-406F-8448-9CBBB0B02D4D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>